--- a/img30/offline-30mv-Layer2-Test2.xlsx
+++ b/img30/offline-30mv-Layer2-Test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/img30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4850D-A49B-994E-8BDE-A3C49951BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ADC018-E418-484F-8AF3-272CCAADD46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
